--- a/test_data/my_data.xlsx
+++ b/test_data/my_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\2.L&amp;T Technology Services InternShip\week 6.Robot framework\Caption_Project\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8700BFC2-DB76-4264-BAAE-77CCEF247B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD66B36-F675-48AA-B9E5-E71F53D5E974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4FA1DAB3-7604-4AB5-9B7B-BA572763D8EB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>${password}</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>West Godavari</t>
+  </si>
+  <si>
+    <t>asdfghjkl401@gmail.com</t>
+  </si>
+  <si>
+    <t>asdfghjkl402@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -483,7 +489,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,7 +533,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -556,7 +562,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
